--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_bot.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_bot.xlsx
@@ -1051,7 +1051,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="2:30">
       <c r="B1" s="1" t="s">

--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_bot.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/output/modeloutput_bot.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB11A117-5283-457E-8A5D-731615BECA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,25 +121,361 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -153,13 +483,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,17 +739,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -435,19 +1051,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="2:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,91 +1159,91 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2.999573794718541</v>
+        <v>8.8872263687725</v>
       </c>
       <c r="C2">
-        <v>5.3136113562386598</v>
+        <v>8.5509679430397</v>
       </c>
       <c r="D2">
-        <v>5.1837961938451942</v>
+        <v>3.17042783026879</v>
       </c>
       <c r="E2">
-        <v>5.1275042193196496</v>
+        <v>7.95514847945266</v>
       </c>
       <c r="F2">
-        <v>5.0337354682326447</v>
+        <v>7.68564419010023</v>
       </c>
       <c r="G2">
-        <v>4.902068202166693</v>
+        <v>7.40165277491787</v>
       </c>
       <c r="H2">
-        <v>4.8082793455578248</v>
+        <v>7.1544179980888</v>
       </c>
       <c r="I2">
-        <v>4.6893832402529885</v>
+        <v>6.91862395870762</v>
       </c>
       <c r="J2">
-        <v>4.6325026555935667</v>
+        <v>6.70553227878358</v>
       </c>
       <c r="K2">
-        <v>4.5108702005901353</v>
+        <v>6.50000782429214</v>
       </c>
       <c r="L2">
-        <v>4.41635366255462</v>
+        <v>6.30125147695144</v>
       </c>
       <c r="M2">
-        <v>4.3346191419226523</v>
+        <v>6.11594210011363</v>
       </c>
       <c r="N2">
-        <v>4.2549781217994802</v>
+        <v>5.93315173639651</v>
       </c>
       <c r="O2">
-        <v>4.1725687559942797</v>
+        <v>5.75466231097856</v>
       </c>
       <c r="P2">
-        <v>4.0798815958436601</v>
+        <v>5.58431323821251</v>
       </c>
       <c r="Q2">
-        <v>4.0418705401768502</v>
+        <v>5.42044694284498</v>
       </c>
       <c r="R2">
-        <v>3.9389196058245037</v>
+        <v>5.26299265268885</v>
       </c>
       <c r="S2">
-        <v>3.8886641534506818</v>
+        <v>5.11120095489886</v>
       </c>
       <c r="T2">
-        <v>3.8019215565770348</v>
+        <v>4.98145890328177</v>
       </c>
       <c r="U2">
-        <v>3.7318703364202599</v>
+        <v>4.84493885759629</v>
       </c>
       <c r="V2">
-        <v>3.6747236967947861</v>
+        <v>4.71760843283475</v>
       </c>
       <c r="W2">
-        <v>3.6046275418110683</v>
+        <v>4.59416109509899</v>
       </c>
       <c r="X2">
-        <v>3.5707867842215473</v>
+        <v>4.47059046415209</v>
       </c>
       <c r="Y2">
-        <v>3.5076780931763132</v>
+        <v>4.34685022288437</v>
       </c>
       <c r="Z2">
-        <v>3.4902590990417108</v>
+        <v>4.2610627169721</v>
       </c>
       <c r="AA2">
-        <v>3.4945905156078392</v>
+        <v>4.19038288805881</v>
       </c>
       <c r="AB2">
-        <v>3.4198333013619542</v>
+        <v>4.2727208733707</v>
       </c>
       <c r="AC2">
-        <v>3.3620885938163751</v>
+        <v>4.20717971691824</v>
       </c>
       <c r="AD2">
-        <v>3.313264829972236</v>
+        <v>4.15906573146536</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -633,64 +1251,91 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>2.6646160596338456E-2</v>
+        <v>0.0102906207166078</v>
       </c>
       <c r="C3">
-        <v>1.580396889400669E-2</v>
+        <v>0.0112371013126128</v>
       </c>
       <c r="D3">
-        <v>1.1245162959589933E-2</v>
+        <v>0.00641562033090129</v>
       </c>
       <c r="E3">
-        <v>1.725566228449164E-2</v>
+        <v>0.0127263244466178</v>
       </c>
       <c r="F3">
-        <v>1.7746580396977064E-2</v>
+        <v>0.0132995950331477</v>
       </c>
       <c r="G3">
-        <v>1.8642691086642422E-2</v>
+        <v>0.0141277456340455</v>
+      </c>
+      <c r="H3">
+        <v>0.0146167629420199</v>
       </c>
       <c r="I3">
-        <v>1.9173077482387162E-2</v>
+        <v>0.0148696740922148</v>
+      </c>
+      <c r="J3">
+        <v>0.0149091017899992</v>
       </c>
       <c r="K3">
-        <v>1.8849274561250094E-2</v>
+        <v>0.0149676877219034</v>
       </c>
       <c r="L3">
-        <v>1.8765250064109337E-2</v>
+        <v>0.0150489088085693</v>
       </c>
       <c r="M3">
-        <v>1.8547663822044837E-2</v>
+        <v>0.0150414746815462</v>
       </c>
       <c r="N3">
-        <v>1.8376549109043377E-2</v>
+        <v>0.01507958736411</v>
+      </c>
+      <c r="O3">
+        <v>0.0151760681574071</v>
       </c>
       <c r="P3">
-        <v>1.8306981225308355E-2</v>
+        <v>0.0153041124001299</v>
+      </c>
+      <c r="Q3">
+        <v>0.0154406252703395</v>
       </c>
       <c r="R3">
-        <v>1.8199061853868284E-2</v>
+        <v>0.0155850060884666</v>
+      </c>
+      <c r="S3">
+        <v>0.0157519845176177</v>
       </c>
       <c r="T3">
-        <v>1.8209697461461952E-2</v>
+        <v>0.0159024102344341</v>
       </c>
       <c r="U3">
-        <v>1.8390233257382135E-2</v>
+        <v>0.0162083611508385</v>
+      </c>
+      <c r="V3">
+        <v>0.0164776813269387</v>
+      </c>
+      <c r="W3">
+        <v>0.0167235270253833</v>
       </c>
       <c r="X3">
-        <v>1.8606436615493264E-2</v>
+        <v>0.0170049696532446</v>
+      </c>
+      <c r="Y3">
+        <v>0.0173802304319069</v>
       </c>
       <c r="Z3">
-        <v>1.874649590232292E-2</v>
+        <v>0.0175700689120719</v>
       </c>
       <c r="AA3">
-        <v>1.8499942339183405E-2</v>
+        <v>0.0176533277025597</v>
       </c>
       <c r="AB3">
-        <v>1.862274987413081E-2</v>
+        <v>0.017055240466033</v>
       </c>
       <c r="AC3">
-        <v>1.8622642059515457E-2</v>
+        <v>0.0170283672186397</v>
+      </c>
+      <c r="AD3">
+        <v>0.00231297268222108</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -698,120 +1343,115 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>2.2851400431177386E-2</v>
+        <v>0.00882510235688089</v>
       </c>
       <c r="C4">
-        <v>1.2970631353951219E-2</v>
+        <v>0.00922251236954635</v>
       </c>
       <c r="D4">
-        <v>1.3295257342859735E-2</v>
+        <v>0.0248736984014926</v>
       </c>
       <c r="E4">
-        <v>1.3445877148436029E-2</v>
+        <v>0.00991654752157212</v>
       </c>
       <c r="F4">
-        <v>1.3648793778634873E-2</v>
+        <v>0.0102286426954519</v>
       </c>
       <c r="G4">
-        <v>1.4058693003166183E-2</v>
+        <v>0.0106539145970282</v>
       </c>
       <c r="H4">
-        <v>1.4266072672080748E-2</v>
+        <v>0.0109706771506248</v>
       </c>
       <c r="I4">
-        <v>1.4540205971958617E-2</v>
+        <v>0.0112766520781713</v>
+      </c>
+      <c r="J4">
+        <v>0.0115071923286776</v>
       </c>
       <c r="K4">
-        <v>1.4787018599042533E-2</v>
+        <v>0.0117419625890243</v>
       </c>
       <c r="L4">
-        <v>1.4942958834862059E-2</v>
+        <v>0.0119835986234015</v>
       </c>
       <c r="M4">
-        <v>1.5029753952329999E-2</v>
+        <v>0.012188578880492</v>
       </c>
       <c r="N4">
-        <v>1.5134772981807798E-2</v>
+        <v>0.0124194227142912</v>
       </c>
       <c r="O4">
-        <v>1.5266389088931052E-2</v>
+        <v>0.0126658286054962</v>
       </c>
       <c r="P4">
-        <v>1.5441283612384567E-2</v>
+        <v>0.0129084712054834</v>
+      </c>
+      <c r="Q4">
+        <v>0.0131558853942789</v>
       </c>
       <c r="R4">
-        <v>1.5655449882292567E-2</v>
+        <v>0.0134067505068319</v>
       </c>
       <c r="S4">
-        <v>1.5696908467511126E-2</v>
+        <v>0.0136648613132114</v>
       </c>
       <c r="T4">
-        <v>1.5899720017544902E-2</v>
+        <v>0.0138851219723308</v>
       </c>
       <c r="U4">
-        <v>1.6074592867291276E-2</v>
+        <v>0.014167455241013</v>
       </c>
       <c r="V4">
-        <v>1.6203561417830924E-2</v>
+        <v>0.0144419853657643</v>
       </c>
       <c r="W4">
-        <v>1.6396892790750871E-2</v>
+        <v>0.0147207303037102</v>
       </c>
       <c r="X4">
-        <v>1.6462971784658807E-2</v>
+        <v>0.0150459941033112</v>
       </c>
       <c r="Y4">
-        <v>1.6703642647655618E-2</v>
+        <v>0.0154230357970853</v>
       </c>
       <c r="Z4">
-        <v>1.6727570285255323E-2</v>
+        <v>0.0156778399640567</v>
       </c>
       <c r="AA4">
-        <v>1.6637647432031898E-2</v>
+        <v>0.0158762571759601</v>
       </c>
       <c r="AB4">
-        <v>1.6919677514830613E-2</v>
+        <v>0.0154955186840599</v>
       </c>
       <c r="AC4">
-        <v>1.7122670135128977E-2</v>
+        <v>0.0156568071218246</v>
       </c>
       <c r="AD4">
-        <v>1.7282468211200393E-2</v>
+        <v>0.0157535978625576</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5">
-        <v>0.79743819423045481</v>
-      </c>
-      <c r="D5">
-        <v>0.88039161555668821</v>
-      </c>
-      <c r="E5">
-        <v>0.8518191353274267</v>
-      </c>
-      <c r="G5">
-        <v>1.0247460030260802</v>
-      </c>
-      <c r="K5">
-        <v>0.86741587809678111</v>
-      </c>
-      <c r="N5">
-        <v>1.0535024028028905</v>
+      <c r="B5"/>
+      <c r="Y5">
+        <v>0.0346189052433547</v>
       </c>
       <c r="Z5">
-        <v>0.92734718253035309</v>
+        <v>0.0576268317023443</v>
       </c>
       <c r="AA5">
-        <v>0.72631641302144034</v>
+        <v>0.462003096325644</v>
+      </c>
+      <c r="AB5">
+        <v>0.137850430313573</v>
       </c>
       <c r="AC5">
-        <v>5.7332677082864304E-2</v>
+        <v>0.253766310833653</v>
       </c>
       <c r="AD5">
-        <v>0.17036091498516726</v>
+        <v>0.0483280882026342</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -819,94 +1459,95 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>0.97893575525797061</v>
+        <v>0.151115727971144</v>
       </c>
       <c r="C6">
-        <v>0.1607746082904776</v>
+        <v>0.152459618679818</v>
       </c>
       <c r="D6">
-        <v>1.0369320358591378</v>
+        <v>0.163289323818166</v>
       </c>
       <c r="E6">
-        <v>1.0145206747603543</v>
+        <v>0.154642877143761</v>
       </c>
       <c r="F6">
-        <v>0.16339538220158323</v>
+        <v>0.155528242985233</v>
       </c>
       <c r="G6">
-        <v>1.1894473871158888</v>
+        <v>0.156781665585929</v>
       </c>
       <c r="H6">
-        <v>0.14626608075775405</v>
+        <v>0.157587445526794</v>
       </c>
       <c r="I6">
-        <v>0.1657132915837049</v>
+        <v>0.158146331680395</v>
       </c>
       <c r="J6">
-        <v>0.13200000806605225</v>
+        <v>0.158416299691092</v>
       </c>
       <c r="K6">
-        <v>1.0330521712570737</v>
+        <v>0.158709655947561</v>
       </c>
       <c r="L6">
-        <v>0.16570821703599134</v>
+        <v>0.159032513134958</v>
       </c>
       <c r="M6">
-        <v>0.16557742590797053</v>
+        <v>0.159230059326651</v>
       </c>
       <c r="N6">
-        <v>1.2190137248937418</v>
+        <v>0.159499015909297</v>
       </c>
       <c r="O6">
-        <v>0.14726639722628376</v>
+        <v>0.159841902663104</v>
       </c>
       <c r="P6">
-        <v>0.1657482730114698</v>
+        <v>0.160212589577349</v>
       </c>
       <c r="Q6">
-        <v>0.13200000810916968</v>
+        <v>0.160596516711392</v>
       </c>
       <c r="R6">
-        <v>0.16585451992040601</v>
+        <v>0.160991762720537</v>
       </c>
       <c r="S6">
-        <v>0.14769691662691842</v>
+        <v>0.161416852038606</v>
       </c>
       <c r="T6">
-        <v>0.16610942569880519</v>
+        <v>0.161787538480234</v>
       </c>
       <c r="U6">
-        <v>0.16646483437642726</v>
+        <v>0.162375822747861</v>
       </c>
       <c r="V6">
-        <v>0.14820356967964321</v>
+        <v>0.162919673128141</v>
       </c>
       <c r="W6">
-        <v>0.14839690109927139</v>
+        <v>0.163444263848047</v>
       </c>
       <c r="X6">
-        <v>0.16706941667874645</v>
+        <v>0.164050970368903</v>
       </c>
       <c r="Y6">
-        <v>0.14870365097085828</v>
+        <v>0.199422171472347</v>
       </c>
       <c r="Z6">
-        <v>1.0948212487179312</v>
+        <v>0.222874740578473</v>
       </c>
       <c r="AA6">
-        <v>0.89345400279265563</v>
+        <v>0.627532681204164</v>
       </c>
       <c r="AB6">
-        <v>0.16754243563288373</v>
+        <v>0.302401189463666</v>
       </c>
       <c r="AC6">
-        <v>0.22507798927750874</v>
+        <v>0.418451485174117</v>
       </c>
       <c r="AD6">
-        <v>0.31964338319633256</v>
+        <v>0.198394658747415</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>